--- a/CaseCountData.xlsx
+++ b/CaseCountData.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mturner340\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8821E711-56D5-4EAD-B0DF-1D1986CA6990}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84C28830-A69D-40FC-BF63-3AC87147AA67}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="1" xr2:uid="{596E1D62-FD95-4C02-A0B7-F99C05CAAC77}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6740" xr2:uid="{596E1D62-FD95-4C02-A0B7-F99C05CAAC77}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cases and Deaths" sheetId="1" r:id="rId1"/>
+    <sheet name="Cases and Fatalities" sheetId="1" r:id="rId1"/>
     <sheet name="Tests" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Deaths'!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Fatalities'!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,9 +31,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
-    <t>COVID-19 Cases and Deaths by County as of 3/29 at 10AM CST</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Deaths</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -419,6 +413,12 @@
   </si>
   <si>
     <t>Number of People Tested for SARS-CoV-2 in Texas as of 3/29 at 10AM CST</t>
+  </si>
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 3/29 at 10AM CST</t>
+  </si>
+  <si>
+    <t>Fatalities</t>
   </si>
 </sst>
 </file>
@@ -467,28 +467,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -800,27 +779,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A3B85F-581C-400C-A963-F9BD41CF71DB}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -828,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -842,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -856,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -870,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -884,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -898,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>140</v>
@@ -912,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -926,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -940,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>61</v>
@@ -954,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>40</v>
@@ -968,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -982,7 +961,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -996,7 +975,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1010,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1024,7 +1003,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1038,7 +1017,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -1052,7 +1031,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1066,7 +1045,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1080,7 +1059,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1094,7 +1073,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1108,7 +1087,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>128</v>
@@ -1122,7 +1101,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -1136,7 +1115,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1150,7 +1129,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1164,7 +1143,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>439</v>
@@ -1178,7 +1157,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1192,7 +1171,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1206,7 +1185,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>148</v>
@@ -1220,7 +1199,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1234,7 +1213,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1248,7 +1227,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1262,7 +1241,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>35</v>
@@ -1276,7 +1255,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>13</v>
@@ -1290,7 +1269,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1304,7 +1283,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1318,7 +1297,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1332,7 +1311,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1346,7 +1325,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>101</v>
@@ -1360,7 +1339,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1374,7 +1353,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1388,7 +1367,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>49</v>
@@ -1402,7 +1381,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1416,7 +1395,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1430,7 +1409,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1444,7 +1423,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -1458,7 +1437,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1472,7 +1451,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>9</v>
@@ -1486,7 +1465,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>445</v>
@@ -1500,7 +1479,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1514,7 +1493,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>13</v>
@@ -1528,7 +1507,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2">
         <v>27</v>
@@ -1542,7 +1521,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -1556,7 +1535,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2">
         <v>2</v>
@@ -1570,7 +1549,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1584,7 +1563,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1598,7 +1577,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1612,7 +1591,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -1626,7 +1605,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>8</v>
@@ -1640,7 +1619,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1654,7 +1633,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1668,7 +1647,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -1682,7 +1661,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1696,7 +1675,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1710,7 +1689,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1724,7 +1703,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -1738,7 +1717,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1752,7 +1731,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1766,7 +1745,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1780,7 +1759,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71">
         <v>41</v>
@@ -1794,7 +1773,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1808,7 +1787,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1822,7 +1801,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74">
         <v>12</v>
@@ -1836,7 +1815,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1850,7 +1829,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76">
         <v>36</v>
@@ -1864,7 +1843,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1878,7 +1857,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>11</v>
@@ -1892,7 +1871,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -1906,7 +1885,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1920,7 +1899,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81">
         <v>64</v>
@@ -1934,7 +1913,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1948,7 +1927,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1962,7 +1941,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1976,7 +1955,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2">
         <v>21</v>
@@ -1990,7 +1969,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -2004,7 +1983,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -2018,7 +1997,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -2032,7 +2011,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -2046,7 +2025,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -2060,7 +2039,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -2074,7 +2053,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -2088,7 +2067,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -2102,7 +2081,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2116,7 +2095,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -2130,7 +2109,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2144,7 +2123,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2158,7 +2137,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98">
         <v>30</v>
@@ -2172,7 +2151,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2186,7 +2165,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2200,7 +2179,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101">
         <v>139</v>
@@ -2214,7 +2193,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102">
         <v>7</v>
@@ -2228,7 +2207,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2242,7 +2221,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -2256,7 +2235,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105">
         <v>179</v>
@@ -2270,7 +2249,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2284,7 +2263,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -2298,7 +2277,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -2312,7 +2291,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2326,7 +2305,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -2340,7 +2319,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -2354,7 +2333,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -2368,7 +2347,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C113">
         <v>5</v>
@@ -2382,7 +2361,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114" s="2">
         <v>25</v>
@@ -2396,7 +2375,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115">
         <v>6</v>
@@ -2410,7 +2389,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116">
         <v>26</v>
@@ -2424,7 +2403,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -2438,7 +2417,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118">
         <v>37</v>
@@ -2452,7 +2431,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -2466,7 +2445,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -2477,7 +2456,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C121">
         <v>2552</v>
@@ -2495,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E8A170-A75B-40E6-8C91-17FEFD910303}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2506,20 +2485,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1">
         <v>3457</v>
@@ -2527,7 +2506,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1">
         <v>22026</v>
@@ -2535,7 +2514,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/CaseCountData.xlsx
+++ b/CaseCountData.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mturner340\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84C28830-A69D-40FC-BF63-3AC87147AA67}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D328F8AF-59B5-4CC1-A3D5-B89BBD62683A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6740" xr2:uid="{596E1D62-FD95-4C02-A0B7-F99C05CAAC77}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{AEC85E24-9E5F-4ED1-933F-BACA42E96EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases and Fatalities" sheetId="1" r:id="rId1"/>
     <sheet name="Tests" sheetId="2" r:id="rId2"/>
+    <sheet name="Cases by Age Groups" sheetId="3" r:id="rId3"/>
+    <sheet name="Cases by Gender" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Fatalities'!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Cases by Gender'!$A$2:$B$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="159">
   <si>
     <t>No.</t>
   </si>
@@ -40,12 +42,15 @@
     <t>Positive</t>
   </si>
   <si>
+    <t>Angelina</t>
+  </si>
+  <si>
+    <t>Aransas</t>
+  </si>
+  <si>
     <t>Atascosa</t>
   </si>
   <si>
-    <t>Angelina</t>
-  </si>
-  <si>
     <t>Austin</t>
   </si>
   <si>
@@ -127,12 +132,12 @@
     <t>DeWitt</t>
   </si>
   <si>
+    <t>Eastland</t>
+  </si>
+  <si>
     <t>Ector</t>
   </si>
   <si>
-    <t>Eastland</t>
-  </si>
-  <si>
     <t>El Paso</t>
   </si>
   <si>
@@ -193,6 +198,9 @@
     <t>Hidalgo</t>
   </si>
   <si>
+    <t>Hill</t>
+  </si>
+  <si>
     <t>Hockley</t>
   </si>
   <si>
@@ -211,6 +219,9 @@
     <t>Jefferson</t>
   </si>
   <si>
+    <t>Jim Wells</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -232,6 +243,9 @@
     <t>Lamb</t>
   </si>
   <si>
+    <t>Leon</t>
+  </si>
+  <si>
     <t>Lavaca</t>
   </si>
   <si>
@@ -277,6 +291,9 @@
     <t>Montgomery</t>
   </si>
   <si>
+    <t>Moore</t>
+  </si>
+  <si>
     <t>Morris</t>
   </si>
   <si>
@@ -328,12 +345,12 @@
     <t>Smith</t>
   </si>
   <si>
+    <t>Starr</t>
+  </si>
+  <si>
     <t>Swisher</t>
   </si>
   <si>
-    <t>Starr</t>
-  </si>
-  <si>
     <t>Tarrant</t>
   </si>
   <si>
@@ -391,6 +408,9 @@
     <t>Wilson</t>
   </si>
   <si>
+    <t>Wise</t>
+  </si>
+  <si>
     <t>Young</t>
   </si>
   <si>
@@ -412,10 +432,79 @@
     <t xml:space="preserve">*Unable to deduplicate figures for Commercial labs.  </t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 3/29 at 10AM CST</t>
-  </si>
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 3/29 at 10AM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 3/30 at 8AM CST</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>&lt;1 year</t>
+  </si>
+  <si>
+    <t>1-9 years</t>
+  </si>
+  <si>
+    <t>10-19 years</t>
+  </si>
+  <si>
+    <t>20-29 years</t>
+  </si>
+  <si>
+    <t>30-39 years</t>
+  </si>
+  <si>
+    <t>40-49 years</t>
+  </si>
+  <si>
+    <t>50-59 years</t>
+  </si>
+  <si>
+    <t>60-64 years</t>
+  </si>
+  <si>
+    <t>65-69 years</t>
+  </si>
+  <si>
+    <t>70-74 years</t>
+  </si>
+  <si>
+    <t>75-79 years</t>
+  </si>
+  <si>
+    <t>80+ years</t>
+  </si>
+  <si>
+    <t>Pending DOB</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Demographic data reflects information received to date on persons with confirmed COVID-19 disease reported by local and regional health departments.</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 3/30 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Cases as of 3/30 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 3/30 at 10 AM CST</t>
   </si>
   <si>
     <t>Fatalities</t>
@@ -425,26 +514,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -459,10 +550,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,16 +868,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A3B85F-581C-400C-A963-F9BD41CF71DB}">
-  <dimension ref="A1:D121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E89D7A-BF40-4C0C-893A-737D07DF7435}">
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -799,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -807,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -821,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -852,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -866,10 +960,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -880,10 +974,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,10 +988,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -908,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -922,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -936,10 +1030,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,10 +1044,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,7 +1058,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -992,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1006,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1020,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1034,7 +1128,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1048,7 +1142,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1062,7 +1156,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1076,7 +1170,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1090,10 +1184,10 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1104,7 +1198,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1118,10 +1212,10 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,10 +1240,10 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>439</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,10 +1254,10 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>488</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1174,7 +1268,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1188,10 +1282,10 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,10 +1296,10 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1213,7 +1307,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1227,10 +1321,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1244,7 +1338,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1258,7 +1352,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1272,7 +1366,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1325,13 +1419,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1339,13 +1433,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1353,7 +1447,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1370,7 +1464,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1384,7 +1478,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1398,7 +1492,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1412,7 +1506,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1426,7 +1520,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1440,7 +1534,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1454,10 +1548,10 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1468,10 +1562,10 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1482,10 +1576,10 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>526</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1496,7 +1590,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1509,8 +1603,8 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="2">
-        <v>27</v>
+      <c r="C53">
+        <v>16</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1524,7 +1618,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1537,8 +1631,8 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="2">
-        <v>2</v>
+      <c r="C55">
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1552,7 +1646,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1566,7 +1660,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1580,7 +1674,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1594,7 +1688,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1608,10 +1702,10 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1622,7 +1716,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1636,7 +1730,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1650,10 +1744,10 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1664,7 +1758,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1692,7 +1786,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1705,7 +1799,7 @@
       <c r="B67" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
@@ -1720,7 +1814,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1745,10 +1839,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1759,10 +1853,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1776,7 +1870,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1790,7 +1884,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1804,10 +1898,10 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1818,7 +1912,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1832,7 +1926,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1846,7 +1940,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1860,7 +1954,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1874,7 +1968,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1888,7 +1982,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1902,7 +1996,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1916,10 +2010,10 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1957,8 +2051,8 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="2">
-        <v>21</v>
+      <c r="C85">
+        <v>66</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -1972,10 +2066,10 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2000,7 +2094,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2014,13 +2108,13 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2028,13 +2122,13 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2042,10 +2136,10 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2056,7 +2150,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2084,7 +2178,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2098,7 +2192,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2112,7 +2206,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2126,7 +2220,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2140,10 +2234,10 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2151,10 +2245,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2165,7 +2259,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2182,10 +2276,10 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2196,7 +2290,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -2210,10 +2304,10 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2224,7 +2318,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2238,10 +2332,10 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2252,10 +2346,10 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2266,13 +2360,13 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2280,7 +2374,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2294,10 +2388,10 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2308,10 +2402,10 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2322,7 +2416,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2336,13 +2430,13 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2363,11 +2457,11 @@
       <c r="B114" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="2">
-        <v>25</v>
+      <c r="C114">
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2392,7 +2486,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2406,7 +2500,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2420,10 +2514,10 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2434,10 +2528,10 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2448,21 +2542,107 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
       <c r="B121" t="s">
         <v>121</v>
       </c>
       <c r="C121">
-        <v>2552</v>
+        <v>28</v>
       </c>
       <c r="D121">
-        <v>34</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123">
+        <v>37</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127">
+        <f>SUM(C3:C126)</f>
+        <v>2877</v>
+      </c>
+      <c r="D127">
+        <f>SUM(D3:D126)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2471,50 +2651,279 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E8A170-A75B-40E6-8C91-17FEFD910303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9EA3BB-C000-42DD-82C1-E65C68EA1098}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.1328125" customWidth="1"/>
+    <col min="1" max="1" width="60.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1">
-        <v>3457</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1">
-        <v>22026</v>
+        <v>32176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E440707C-CB5A-49A6-94C5-B97EAAF7057C}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE5AAB-1935-4356-9D40-7C5EA8E0A60F}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3">
+        <v>415</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.47266514806378135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>385</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.43849658314350798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.8838268792710701E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>878</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/CaseCountData.xlsx
+++ b/CaseCountData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D328F8AF-59B5-4CC1-A3D5-B89BBD62683A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA97CBF0-72CE-44F6-ADD6-E76857BD232D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{AEC85E24-9E5F-4ED1-933F-BACA42E96EA0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{160AD870-B85E-4BCA-95A5-2750792D272A}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases and Fatalities" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Cases by Gender" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Cases by Gender'!$A$2:$B$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Fatalities'!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="157">
   <si>
     <t>No.</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Angelina</t>
   </si>
   <si>
-    <t>Aransas</t>
-  </si>
-  <si>
     <t>Atascosa</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>Jefferson</t>
   </si>
   <si>
-    <t>Jim Wells</t>
-  </si>
-  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -417,6 +411,12 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Fatalities</t>
+  </si>
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 3/31 at 10AM CST</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">*Unable to deduplicate figures for Commercial labs.  </t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 3/30 at 8AM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 3/31 at 8AM CST</t>
   </si>
   <si>
     <t>Age Group</t>
@@ -492,22 +492,16 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>Percentage</t>
+  </si>
+  <si>
     <t>Demographic data reflects information received to date on persons with confirmed COVID-19 disease reported by local and regional health departments.</t>
   </si>
   <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 3/30 at 8 AM CST</t>
-  </si>
-  <si>
     <t>Age of Confirmed Cases as of 3/30 at 8 AM CST</t>
   </si>
   <si>
-    <t>COVID-19 Cases and Fatalities by County as of 3/30 at 10 AM CST</t>
-  </si>
-  <si>
-    <t>Fatalities</t>
+    <t>Gender of Confirmed Cases as of 3/31 at 8 AM CST</t>
   </si>
 </sst>
 </file>
@@ -553,8 +547,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,18 +862,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E89D7A-BF40-4C0C-893A-737D07DF7435}">
-  <dimension ref="A1:D127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044F80BF-1F9B-4E9C-A2F1-1497551062CC}">
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -893,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -904,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -946,7 +938,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -960,10 +952,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -974,10 +966,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -988,10 +980,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,7 +994,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1016,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1030,10 +1022,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1044,10 +1036,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1058,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1072,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1086,7 +1078,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1100,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1114,7 +1106,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1128,7 +1120,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1142,7 +1134,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1170,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1184,10 +1176,10 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1198,10 +1190,10 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,10 +1204,10 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1240,10 +1232,10 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>549</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1254,10 +1246,10 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1268,7 +1260,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1282,10 +1274,10 @@
         <v>30</v>
       </c>
       <c r="C30">
+        <v>191</v>
+      </c>
+      <c r="D30">
         <v>2</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1296,10 +1288,10 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1324,7 +1316,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1338,7 +1330,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1352,10 +1344,10 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1366,7 +1358,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1408,7 +1400,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1416,30 +1408,30 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1447,7 +1439,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1464,7 +1456,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1478,7 +1470,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1492,7 +1484,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1506,7 +1498,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1520,7 +1512,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1534,7 +1526,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1548,10 +1540,10 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1562,10 +1554,10 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>563</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1576,10 +1568,10 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>526</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1590,7 +1582,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1604,7 +1596,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1618,7 +1610,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1632,7 +1624,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1646,7 +1638,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1660,7 +1652,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1674,7 +1666,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1688,7 +1680,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1702,7 +1694,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1716,10 +1708,10 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,7 +1722,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1744,10 +1736,10 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1758,7 +1750,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1772,7 +1764,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1786,7 +1778,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1808,13 +1800,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1822,10 +1814,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1839,10 +1831,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1853,10 +1845,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1870,7 +1862,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1884,7 +1876,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1898,7 +1890,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1912,7 +1904,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1926,10 +1918,10 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1954,10 +1946,10 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1968,7 +1960,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1982,10 +1974,10 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1996,7 +1988,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2010,10 +2002,10 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2024,7 +2016,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2052,7 +2044,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2066,7 +2058,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2080,7 +2072,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2094,7 +2086,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2108,10 +2100,10 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2122,7 +2114,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2136,10 +2128,10 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2150,7 +2142,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2164,7 +2156,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2178,7 +2170,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2192,7 +2184,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2206,7 +2198,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2220,7 +2212,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2234,7 +2226,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2248,7 +2240,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2262,7 +2254,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2276,10 +2268,10 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2304,10 +2296,10 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2318,10 +2310,10 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2332,7 +2324,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2346,10 +2338,10 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2360,7 +2352,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2374,10 +2366,10 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2388,7 +2380,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2402,10 +2394,10 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2416,7 +2408,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2433,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2444,7 +2436,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2458,10 +2450,10 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2472,7 +2464,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2486,7 +2478,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2500,10 +2492,10 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2514,7 +2506,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2528,10 +2520,10 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2542,7 +2534,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2556,10 +2548,10 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2570,7 +2562,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2584,10 +2576,10 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2598,69 +2590,42 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>123</v>
-      </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>3266</v>
       </c>
       <c r="D125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>127</v>
-      </c>
-      <c r="C127">
-        <f>SUM(C3:C126)</f>
-        <v>2877</v>
-      </c>
-      <c r="D127">
-        <f>SUM(D3:D126)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D2" xr:uid="{CC99297F-FA2F-4784-80D7-D16EFC2A1982}">
+    <sortState ref="A3:D122">
+      <sortCondition ref="B2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9EA3BB-C000-42DD-82C1-E65C68EA1098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5E4D38-FA3A-4F6B-B34A-D141A0632F8E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2681,7 +2646,7 @@
         <v>130</v>
       </c>
       <c r="B3" s="1">
-        <v>3704</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2689,7 +2654,7 @@
         <v>131</v>
       </c>
       <c r="B4" s="1">
-        <v>32176</v>
+        <v>39058</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2703,21 +2668,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E440707C-CB5A-49A6-94C5-B97EAAF7057C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6B4575-A5AC-4A14-9A84-E9697D3A22D0}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2757,7 +2717,7 @@
         <v>139</v>
       </c>
       <c r="B6">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2765,7 +2725,7 @@
         <v>140</v>
       </c>
       <c r="B7">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2773,7 +2733,7 @@
         <v>141</v>
       </c>
       <c r="B8">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2781,7 +2741,7 @@
         <v>142</v>
       </c>
       <c r="B9">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2789,7 +2749,7 @@
         <v>143</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2797,7 +2757,7 @@
         <v>144</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2805,7 +2765,7 @@
         <v>145</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2821,7 +2781,7 @@
         <v>147</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2834,36 +2794,35 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16">
-        <v>878</v>
+        <v>901</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>153</v>
+      <c r="A18" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE5AAB-1935-4356-9D40-7C5EA8E0A60F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8702DE-17B7-4781-930A-DB8D251EB849}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2874,29 +2833,29 @@
         <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3">
-        <v>415</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.47266514806378135</v>
+        <v>395</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.4384017758046615</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4">
-        <v>385</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.43849658314350798</v>
+        <v>434</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.48168701442841289</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2904,26 +2863,26 @@
         <v>151</v>
       </c>
       <c r="B5">
-        <v>78</v>
-      </c>
-      <c r="C5" s="3">
-        <v>8.8838268792710701E-2</v>
+        <v>72</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.9911209766925645E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6">
-        <v>878</v>
-      </c>
-      <c r="C6" s="3">
+        <v>901</v>
+      </c>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/CaseCountData.xlsx
+++ b/CaseCountData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA97CBF0-72CE-44F6-ADD6-E76857BD232D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FB18FE92-9B07-4B1F-A32A-BEF3ADDCD373}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{160AD870-B85E-4BCA-95A5-2750792D272A}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Cases by Gender" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Fatalities'!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Fatalities'!$A$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
   <si>
     <t>No.</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Dawson</t>
   </si>
   <si>
-    <t xml:space="preserve">Deaf Smith </t>
-  </si>
-  <si>
     <t>Denton</t>
   </si>
   <si>
@@ -324,15 +321,9 @@
     <t>Rockwall</t>
   </si>
   <si>
-    <t xml:space="preserve">Rusk </t>
-  </si>
-  <si>
     <t>San Jacinto</t>
   </si>
   <si>
-    <t xml:space="preserve">San Patricio </t>
-  </si>
-  <si>
     <t>Shelby</t>
   </si>
   <si>
@@ -414,9 +405,6 @@
     <t>Fatalities</t>
   </si>
   <si>
-    <t>COVID-19 Cases and Fatalities by County as of 3/31 at 10AM CST</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -432,9 +420,6 @@
     <t xml:space="preserve">*Unable to deduplicate figures for Commercial labs.  </t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 3/31 at 8AM CST</t>
-  </si>
-  <si>
     <t>Age Group</t>
   </si>
   <si>
@@ -498,10 +483,64 @@
     <t>Demographic data reflects information received to date on persons with confirmed COVID-19 disease reported by local and regional health departments.</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 3/30 at 8 AM CST</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 3/31 at 8 AM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 4/1 at 8AM CST</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 4/1 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Cases as of 4/1 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Comanche</t>
+  </si>
+  <si>
+    <t>Deaf Smith</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>Kerr</t>
+  </si>
+  <si>
+    <t>Live Oak</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Rusk</t>
+  </si>
+  <si>
+    <t>San Augustine</t>
+  </si>
+  <si>
+    <t>San Patricio</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>COVID-19 Cases and Deaths by County as of 4/1 at 10AM CST</t>
   </si>
 </sst>
 </file>
@@ -511,15 +550,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -544,11 +578,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044F80BF-1F9B-4E9C-A2F1-1497551062CC}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -871,7 +904,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -885,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -893,10 +926,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -907,10 +940,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -921,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -935,10 +968,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -949,13 +982,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -963,13 +996,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -977,13 +1010,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>207</v>
+      </c>
+      <c r="D9">
         <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -991,10 +1024,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1005,10 +1038,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1019,13 +1052,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1033,13 +1066,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1047,10 +1080,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1061,10 +1094,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1075,10 +1108,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1089,10 +1122,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1103,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1117,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1131,10 +1164,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1145,10 +1178,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1159,10 +1192,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1173,13 +1206,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1187,13 +1220,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1201,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1215,13 +1248,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1229,13 +1262,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="C27">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1243,13 +1276,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1257,10 +1290,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1271,13 +1304,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1285,10 +1318,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1299,13 +1332,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>631</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1313,10 +1346,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1327,10 +1360,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1341,13 +1374,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1355,10 +1388,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1369,10 +1402,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1383,10 +1416,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1397,10 +1430,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1408,13 +1441,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1422,13 +1455,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1439,7 +1472,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1453,10 +1486,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1467,10 +1500,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1481,13 +1514,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1495,10 +1528,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1509,10 +1542,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1523,10 +1556,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1537,13 +1570,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1551,13 +1584,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="C50">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,10 +1598,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1579,10 +1612,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1593,10 +1626,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C53">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1607,10 +1640,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1621,10 +1654,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1635,13 +1668,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1649,13 +1682,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>680</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,10 +1696,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1677,10 +1710,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1691,10 +1724,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="C60">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1705,13 +1738,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1719,7 +1752,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1733,10 +1766,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1747,10 +1780,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1761,10 +1794,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1775,10 +1808,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1789,7 +1822,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1800,13 +1833,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1814,16 +1847,16 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1831,7 +1864,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1845,10 +1878,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1859,10 +1892,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1873,10 +1906,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C73">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1887,10 +1920,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1901,10 +1934,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1915,13 +1948,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C76">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1929,7 +1962,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1943,10 +1976,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C78">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1957,7 +1990,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -1971,13 +2004,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1985,10 +2018,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1999,10 +2032,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2013,13 +2046,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C83">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2027,10 +2060,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2041,7 +2074,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2055,13 +2088,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2069,10 +2102,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2083,13 +2116,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C88">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2097,13 +2130,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2111,13 +2144,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2125,10 +2158,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2139,10 +2172,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2153,10 +2186,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93">
         <v>93</v>
-      </c>
-      <c r="C93">
-        <v>5</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2167,10 +2200,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2181,10 +2214,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2195,10 +2228,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2209,10 +2242,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2223,7 +2256,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2237,10 +2270,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2251,13 +2284,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2265,13 +2298,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C101">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2279,10 +2312,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -2293,10 +2326,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -2307,13 +2340,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C104">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2321,10 +2354,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2335,10 +2368,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2349,10 +2382,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2363,13 +2396,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C108">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2377,10 +2410,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2391,10 +2424,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2405,10 +2438,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2419,13 +2452,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2433,13 +2466,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C113">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2447,10 +2480,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2461,10 +2494,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2475,13 +2508,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C116">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2489,13 +2522,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C117">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2503,10 +2536,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2517,10 +2550,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C119">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2531,13 +2564,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C120">
+        <v>244</v>
+      </c>
+      <c r="D120">
         <v>2</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2545,13 +2578,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C121">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2559,10 +2592,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2573,10 +2606,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2587,32 +2620,206 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125">
+        <v>16</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>124</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
+      <c r="B126" t="s">
+        <v>111</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
         <v>125</v>
       </c>
-      <c r="C125">
-        <v>3266</v>
-      </c>
-      <c r="D125">
-        <v>41</v>
+      <c r="B127" t="s">
+        <v>112</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>113</v>
+      </c>
+      <c r="C128">
+        <v>17</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129">
+        <v>45</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>115</v>
+      </c>
+      <c r="C130">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>116</v>
+      </c>
+      <c r="C131">
+        <v>38</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>117</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>119</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>120</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>167</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>121</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>3997</v>
+      </c>
+      <c r="D138">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D2" xr:uid="{CC99297F-FA2F-4784-80D7-D16EFC2A1982}">
-    <sortState ref="A3:D122">
-      <sortCondition ref="B2"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2630,36 +2837,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1">
-        <v>3934</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1">
-        <v>39058</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2677,20 +2884,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2698,7 +2905,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -2706,87 +2913,87 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B6">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B7">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B8">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B9">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2794,15 +3001,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16">
-        <v>901</v>
+        <v>972</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>154</v>
+      <c r="A18" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2814,67 +3021,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8702DE-17B7-4781-930A-DB8D251EB849}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="C3" s="2">
-        <v>0.4384017758046615</v>
+        <v>0.47530864197530864</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B4">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C4" s="2">
-        <v>0.48168701442841289</v>
+        <v>0.45370370370370372</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2">
-        <v>7.9911209766925645E-2</v>
+        <v>7.098765432098765E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6">
-        <v>901</v>
+        <v>972</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2882,7 +3087,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/CaseCountData.xlsx
+++ b/CaseCountData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FB18FE92-9B07-4B1F-A32A-BEF3ADDCD373}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1BB2F5-2B8E-4223-ABEC-EBFC5F2F3809}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{160AD870-B85E-4BCA-95A5-2750792D272A}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Cases by Gender" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Fatalities'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Fatalities'!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="178">
   <si>
     <t>No.</t>
   </si>
@@ -483,15 +483,6 @@
     <t>Demographic data reflects information received to date on persons with confirmed COVID-19 disease reported by local and regional health departments.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 4/1 at 8AM CST</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 4/1 at 8 AM CST</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Cases as of 4/1 at 8 AM CST</t>
-  </si>
-  <si>
     <t>Anderson</t>
   </si>
   <si>
@@ -537,10 +528,43 @@
     <t>Wood</t>
   </si>
   <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>COVID-19 Cases and Deaths by County as of 4/1 at 10AM CST</t>
+    <t>Age of Confirmed Cases as of 4/2 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 4/2 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 4/2 at 8AM CST</t>
+  </si>
+  <si>
+    <t>Donley</t>
+  </si>
+  <si>
+    <t>Gillespie</t>
+  </si>
+  <si>
+    <t>Goliad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray </t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Jim Wells</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Palo Pinto</t>
+  </si>
+  <si>
+    <t>Panola</t>
+  </si>
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 4/2 at 10AM CST</t>
   </si>
 </sst>
 </file>
@@ -896,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044F80BF-1F9B-4E9C-A2F1-1497551062CC}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +928,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -926,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -971,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -985,7 +1009,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -999,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1013,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1055,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1069,10 +1093,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1139,7 +1163,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1153,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1164,7 +1188,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1181,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1223,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1234,7 +1258,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1262,7 +1286,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1279,7 +1303,7 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1290,7 +1314,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1335,10 +1359,10 @@
         <v>27</v>
       </c>
       <c r="C32">
-        <v>631</v>
+        <v>731</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1360,7 +1384,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1377,7 +1401,7 @@
         <v>29</v>
       </c>
       <c r="C35">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -1402,10 +1426,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1416,10 +1440,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1430,10 +1454,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1444,13 +1468,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1458,13 +1482,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1472,10 +1496,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1486,7 +1510,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1500,10 +1524,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1514,13 +1538,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1528,13 +1552,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1542,7 +1566,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1556,10 +1580,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1570,10 +1594,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1584,7 +1608,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1598,10 +1622,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1612,10 +1636,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1626,10 +1650,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1640,10 +1664,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1654,10 +1678,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1668,13 +1692,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C56">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1682,13 +1706,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C57">
-        <v>680</v>
+        <v>20</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1696,10 +1720,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1710,13 +1734,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C59">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,13 +1748,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>847</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1738,10 +1762,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C61">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1752,10 +1776,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1766,10 +1790,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1780,10 +1804,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1794,7 +1818,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1808,10 +1832,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1822,10 +1846,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1836,10 +1860,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1850,13 +1874,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1864,7 +1888,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1878,10 +1902,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1892,10 +1916,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1906,7 +1930,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1920,13 +1944,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1934,10 +1958,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1948,10 +1972,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1962,10 +1986,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1976,10 +2000,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1990,10 +2014,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2004,10 +2028,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2018,7 +2042,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2032,10 +2056,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2046,13 +2070,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="C83">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2060,7 +2084,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -2074,10 +2098,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2088,13 +2112,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C86">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2102,10 +2126,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2116,13 +2140,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C88">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2130,13 +2154,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C89">
+        <v>108</v>
+      </c>
+      <c r="D89">
         <v>3</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2144,13 +2168,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,10 +2182,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2172,13 +2196,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2186,10 +2210,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C93">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2200,13 +2224,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2214,10 +2238,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2228,13 +2252,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2242,10 +2266,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2256,7 +2280,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2270,13 +2294,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C99">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2284,13 +2308,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2298,10 +2322,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2312,10 +2336,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -2326,13 +2350,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C103">
         <v>4</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2340,10 +2364,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="C104">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2354,10 +2378,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2368,13 +2392,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2382,10 +2406,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C107">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2396,10 +2420,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2410,10 +2434,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2424,10 +2448,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2438,10 +2462,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2452,10 +2476,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2466,13 +2490,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C113">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2480,10 +2504,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2494,10 +2518,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2508,13 +2532,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="C116">
-        <v>273</v>
+        <v>6</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2522,10 +2546,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="C117">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2536,10 +2560,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2550,10 +2574,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="C119">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2564,13 +2588,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C120">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2578,13 +2602,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2592,10 +2616,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2606,10 +2630,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C123">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2620,13 +2644,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2634,10 +2658,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C125">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2648,10 +2672,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2662,10 +2686,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2676,13 +2700,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C128">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2690,13 +2714,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C129">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2704,10 +2728,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2718,10 +2742,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C131">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2732,13 +2756,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2746,13 +2770,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C133">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2760,10 +2784,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2774,10 +2798,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2788,10 +2812,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2802,21 +2826,136 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137">
+        <v>57</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>115</v>
+      </c>
+      <c r="C138">
+        <v>9</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139">
+        <v>38</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141">
+        <v>55</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>119</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>120</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
         <v>121</v>
       </c>
-      <c r="C137">
+      <c r="C145">
         <v>3</v>
       </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C138">
-        <v>3997</v>
-      </c>
-      <c r="D138">
-        <v>58</v>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>122</v>
+      </c>
+      <c r="C146">
+        <v>4669</v>
+      </c>
+      <c r="D146">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2976,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2853,7 +2992,7 @@
         <v>126</v>
       </c>
       <c r="B3" s="1">
-        <v>4259</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2861,7 +3000,7 @@
         <v>127</v>
       </c>
       <c r="B4" s="1">
-        <v>43598</v>
+        <v>46139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2881,10 +3020,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.9296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2908,7 +3050,7 @@
         <v>132</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2916,7 +3058,7 @@
         <v>133</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2924,7 +3066,7 @@
         <v>134</v>
       </c>
       <c r="B6">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2932,7 +3074,7 @@
         <v>135</v>
       </c>
       <c r="B7">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2940,7 +3082,7 @@
         <v>136</v>
       </c>
       <c r="B8">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2948,7 +3090,7 @@
         <v>137</v>
       </c>
       <c r="B9">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2956,7 +3098,7 @@
         <v>138</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2964,7 +3106,7 @@
         <v>139</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2972,7 +3114,7 @@
         <v>140</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2980,7 +3122,7 @@
         <v>141</v>
       </c>
       <c r="B13">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2988,7 +3130,7 @@
         <v>142</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3004,7 +3146,7 @@
         <v>122</v>
       </c>
       <c r="B16">
-        <v>972</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -3021,13 +3163,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8702DE-17B7-4781-930A-DB8D251EB849}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3046,10 +3190,10 @@
         <v>145</v>
       </c>
       <c r="B3">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C3" s="2">
-        <v>0.47530864197530864</v>
+        <v>0.45881226053639845</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3057,10 +3201,10 @@
         <v>144</v>
       </c>
       <c r="B4">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="C4" s="2">
-        <v>0.45370370370370372</v>
+        <v>0.47701149425287354</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3068,10 +3212,10 @@
         <v>146</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2">
-        <v>7.098765432098765E-2</v>
+        <v>6.417624521072797E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3079,7 +3223,7 @@
         <v>122</v>
       </c>
       <c r="B6">
-        <v>972</v>
+        <v>1044</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>

--- a/CaseCountData.xlsx
+++ b/CaseCountData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1BB2F5-2B8E-4223-ABEC-EBFC5F2F3809}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{032AAC31-0F1C-437E-B1A2-9F24F0A56B75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{160AD870-B85E-4BCA-95A5-2750792D272A}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Cases by Gender" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Fatalities'!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Fatalities'!$B$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="180">
   <si>
     <t>No.</t>
   </si>
@@ -528,15 +528,6 @@
     <t>Wood</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 4/2 at 8 AM CST</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 4/2 at 8 AM CST</t>
-  </si>
-  <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 4/2 at 8AM CST</t>
-  </si>
-  <si>
     <t>Donley</t>
   </si>
   <si>
@@ -564,7 +555,22 @@
     <t>Panola</t>
   </si>
   <si>
-    <t>COVID-19 Cases and Fatalities by County as of 4/2 at 10AM CST</t>
+    <t>Lampasas</t>
+  </si>
+  <si>
+    <t>Titus</t>
+  </si>
+  <si>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 4/3 at 8AM CST</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 4/3 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Cases as of 4/3 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 4/3 at 10AM CST</t>
   </si>
 </sst>
 </file>
@@ -920,15 +926,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044F80BF-1F9B-4E9C-A2F1-1497551062CC}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -967,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1023,7 +1035,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1037,7 +1049,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1065,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1079,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1093,10 +1105,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1107,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1149,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1177,7 +1189,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1219,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1233,7 +1245,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1275,7 +1287,7 @@
         <v>23</v>
       </c>
       <c r="C26">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1289,7 +1301,7 @@
         <v>153</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1303,7 +1315,7 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1331,7 +1343,7 @@
         <v>25</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1359,10 +1371,10 @@
         <v>27</v>
       </c>
       <c r="C32">
-        <v>731</v>
+        <v>831</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1387,7 +1399,7 @@
         <v>155</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1401,10 +1413,10 @@
         <v>29</v>
       </c>
       <c r="C35">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1415,7 +1427,7 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1426,10 +1438,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1457,7 +1469,7 @@
         <v>32</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1471,7 +1483,7 @@
         <v>33</v>
       </c>
       <c r="C40">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1485,7 +1497,7 @@
         <v>34</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1499,10 +1511,10 @@
         <v>35</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1527,7 +1539,7 @@
         <v>37</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1541,7 +1553,7 @@
         <v>38</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1555,7 +1567,7 @@
         <v>40</v>
       </c>
       <c r="C46">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1597,7 +1609,7 @@
         <v>42</v>
       </c>
       <c r="C49">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1608,7 +1620,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1622,7 +1634,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1650,7 +1662,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1667,7 +1679,7 @@
         <v>43</v>
       </c>
       <c r="C54">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1681,7 +1693,7 @@
         <v>44</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1709,7 +1721,7 @@
         <v>46</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1723,7 +1735,7 @@
         <v>47</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1737,7 +1749,7 @@
         <v>48</v>
       </c>
       <c r="C59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1751,10 +1763,10 @@
         <v>49</v>
       </c>
       <c r="C60">
-        <v>847</v>
+        <v>955</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1768,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,7 +1791,7 @@
         <v>51</v>
       </c>
       <c r="C62">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1807,7 +1819,7 @@
         <v>52</v>
       </c>
       <c r="C64">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1838,7 +1850,7 @@
         <v>7</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1849,7 +1861,7 @@
         <v>55</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1877,7 +1889,7 @@
         <v>57</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1891,7 +1903,7 @@
         <v>58</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1902,7 +1914,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1919,10 +1931,10 @@
         <v>59</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1930,7 +1942,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1947,7 +1959,7 @@
         <v>60</v>
       </c>
       <c r="C74">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1975,7 +1987,7 @@
         <v>62</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2003,7 +2015,7 @@
         <v>158</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2017,7 +2029,7 @@
         <v>64</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2056,7 +2068,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2070,7 +2082,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2084,7 +2096,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -2098,10 +2110,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2112,10 +2124,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2126,10 +2138,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2140,7 +2152,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -2154,13 +2166,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C89">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2168,13 +2180,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C90">
+        <v>117</v>
+      </c>
+      <c r="D90">
         <v>3</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2182,10 +2194,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2196,13 +2208,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C92">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2210,13 +2222,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2224,13 +2236,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C94">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2238,13 +2250,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2252,13 +2264,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C96">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2266,13 +2278,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2280,10 +2292,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2294,13 +2306,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2308,13 +2320,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C100">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2322,10 +2334,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2336,10 +2348,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -2350,10 +2362,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2364,13 +2376,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2378,10 +2390,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="C105">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2392,13 +2404,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2406,13 +2418,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2420,10 +2432,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2434,10 +2446,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2448,13 +2460,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="C110">
         <v>4</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2462,10 +2474,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2476,10 +2488,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C112">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2490,10 +2502,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C113">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2504,10 +2516,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2518,10 +2530,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2532,10 +2544,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2546,10 +2558,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2560,13 +2572,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2574,10 +2586,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2588,10 +2600,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2602,13 +2614,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C121">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2616,13 +2628,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C122">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2630,10 +2642,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2644,13 +2656,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C124">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2658,13 +2670,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C125">
-        <v>14</v>
+        <v>325</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2672,10 +2684,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2686,10 +2698,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C127">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2700,13 +2712,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="C128">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2714,10 +2726,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2728,13 +2740,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>351</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2742,10 +2754,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2756,13 +2768,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2770,10 +2782,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C133">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2784,13 +2796,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2798,10 +2810,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2812,10 +2824,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C136">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2826,13 +2838,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C137">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2840,10 +2852,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C138">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2854,13 +2866,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C139">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2868,10 +2880,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -2882,13 +2894,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C141">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2896,7 +2908,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -2910,13 +2922,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2924,10 +2936,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2938,7 +2950,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -2948,14 +2960,42 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
       <c r="B146" t="s">
+        <v>164</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>121</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
         <v>122</v>
       </c>
-      <c r="C146">
-        <v>4669</v>
-      </c>
-      <c r="D146">
-        <v>70</v>
+      <c r="C148">
+        <v>5330</v>
+      </c>
+      <c r="D148">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2976,7 +3016,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2992,7 +3032,7 @@
         <v>126</v>
       </c>
       <c r="B3" s="1">
-        <v>4540</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3000,7 +3040,7 @@
         <v>127</v>
       </c>
       <c r="B4" s="1">
-        <v>46139</v>
+        <v>50889</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3026,7 +3066,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3042,7 +3082,7 @@
         <v>131</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3050,7 +3090,7 @@
         <v>132</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3058,7 +3098,7 @@
         <v>133</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3066,7 +3106,7 @@
         <v>134</v>
       </c>
       <c r="B6">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3074,7 +3114,7 @@
         <v>135</v>
       </c>
       <c r="B7">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3082,7 +3122,7 @@
         <v>136</v>
       </c>
       <c r="B8">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3090,7 +3130,7 @@
         <v>137</v>
       </c>
       <c r="B9">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3098,7 +3138,7 @@
         <v>138</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3106,7 +3146,7 @@
         <v>139</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3114,7 +3154,7 @@
         <v>140</v>
       </c>
       <c r="B12">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3122,7 +3162,7 @@
         <v>141</v>
       </c>
       <c r="B13">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3130,7 +3170,7 @@
         <v>142</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3146,7 +3186,7 @@
         <v>122</v>
       </c>
       <c r="B16">
-        <v>1044</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -3163,15 +3203,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8702DE-17B7-4781-930A-DB8D251EB849}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3190,10 +3228,10 @@
         <v>145</v>
       </c>
       <c r="B3">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="C3" s="2">
-        <v>0.45881226053639845</v>
+        <v>0.46288209606986902</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3201,10 +3239,10 @@
         <v>144</v>
       </c>
       <c r="B4">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="C4" s="2">
-        <v>0.47701149425287354</v>
+        <v>0.48034934497816595</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3212,10 +3250,10 @@
         <v>146</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2">
-        <v>6.417624521072797E-2</v>
+        <v>5.6768558951965066E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3223,7 +3261,7 @@
         <v>122</v>
       </c>
       <c r="B6">
-        <v>1044</v>
+        <v>1145</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>

--- a/CaseCountData.xlsx
+++ b/CaseCountData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{032AAC31-0F1C-437E-B1A2-9F24F0A56B75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BCEF5C70-065E-4345-AADE-FB39C36FE60C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{160AD870-B85E-4BCA-95A5-2750792D272A}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Cases by Gender" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Fatalities'!$B$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Fatalities'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="186">
   <si>
     <t>No.</t>
   </si>
@@ -561,16 +561,34 @@
     <t>Titus</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 4/3 at 8AM CST</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 4/3 at 8 AM CST</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Cases as of 4/3 at 8 AM CST</t>
-  </si>
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 4/3 at 10AM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 4/4 at 8AM CST</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 4/4 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Cases as of 4/4 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>Andrews</t>
+  </si>
+  <si>
+    <t>Hemphill</t>
+  </si>
+  <si>
+    <t>Hutchinson</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 4/4 at 10AM CST</t>
   </si>
 </sst>
 </file>
@@ -926,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044F80BF-1F9B-4E9C-A2F1-1497551062CC}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,7 +958,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,10 +994,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -990,10 +1008,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1004,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1018,10 +1036,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1032,13 +1050,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>51</v>
-      </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1046,13 +1064,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1060,13 +1078,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>342</v>
+      </c>
+      <c r="D10">
         <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1074,10 +1092,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1088,10 +1106,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1102,13 +1120,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1116,13 +1134,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1130,10 +1148,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1144,10 +1162,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1158,10 +1176,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1172,10 +1190,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1186,10 +1204,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1200,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1214,10 +1232,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1228,10 +1246,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1242,13 +1260,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,10 +1274,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1270,10 +1288,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1284,13 +1302,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="C26">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1298,13 +1316,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1312,13 +1330,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1326,13 +1344,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,10 +1358,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1354,10 +1372,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1368,13 +1386,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>831</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,13 +1400,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>921</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1396,7 +1414,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1410,13 +1428,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="C35">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,13 +1442,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36">
+        <v>273</v>
+      </c>
+      <c r="D36">
         <v>6</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1438,10 +1456,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1452,10 +1470,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1466,10 +1484,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1480,10 +1498,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1494,13 +1512,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1508,13 +1526,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1522,13 +1540,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,10 +1554,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1550,10 +1568,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1564,13 +1582,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1578,13 +1596,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1592,7 +1610,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1606,10 +1624,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1620,10 +1638,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1634,10 +1652,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1648,7 +1666,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1662,7 +1680,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1676,10 +1694,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1690,10 +1708,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1704,10 +1722,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1718,10 +1736,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1732,10 +1750,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1746,13 +1764,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1760,13 +1778,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60">
-        <v>955</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1774,13 +1792,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>1106</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1788,13 +1806,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1802,10 +1820,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1816,10 +1834,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="C64">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1830,10 +1848,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1844,13 +1862,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1858,10 +1876,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1872,13 +1890,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1886,13 +1904,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1900,7 +1918,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1914,10 +1932,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1928,13 +1946,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="C72">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1942,10 +1960,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1956,13 +1974,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="C74">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1970,10 +1988,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1984,10 +2002,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1998,13 +2016,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2012,7 +2030,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -2026,10 +2044,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2040,10 +2058,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2054,10 +2072,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2068,10 +2086,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2082,10 +2100,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2096,10 +2114,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2110,10 +2128,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2124,10 +2142,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2138,10 +2156,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2152,10 +2170,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2166,10 +2184,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2180,13 +2198,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C90">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2194,7 +2212,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -2208,10 +2226,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2222,13 +2240,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C93">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2236,10 +2254,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2250,13 +2268,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C95">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2264,10 +2282,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2278,13 +2296,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C97">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2292,10 +2310,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2306,13 +2324,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2320,13 +2338,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C100">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2334,13 +2352,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2348,10 +2366,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -2362,13 +2380,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C103">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2376,13 +2394,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2390,10 +2408,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2404,10 +2422,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C106">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2418,13 +2436,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="D107">
         <v>2</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2432,13 +2450,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2446,7 +2464,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2460,13 +2478,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2474,13 +2492,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2488,10 +2506,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2502,10 +2520,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="C113">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2516,13 +2534,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="C114">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2530,10 +2548,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2544,10 +2562,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2558,10 +2576,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2572,13 +2590,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2586,10 +2604,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2600,10 +2618,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2614,10 +2632,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2628,10 +2646,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="C122">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2642,10 +2660,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C123">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2656,10 +2674,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -2670,13 +2688,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C125">
-        <v>325</v>
+        <v>11</v>
       </c>
       <c r="D125">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2684,13 +2702,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C126">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2698,10 +2716,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2712,7 +2730,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -2726,13 +2744,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>383</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2740,13 +2758,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C130">
-        <v>351</v>
+        <v>23</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2754,10 +2772,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2768,10 +2786,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2782,10 +2800,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2796,13 +2814,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>430</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2810,10 +2828,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="C135">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2824,10 +2842,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2838,10 +2856,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C137">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2852,10 +2870,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C138">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2866,13 +2884,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C139">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2880,13 +2898,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C140">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2894,10 +2912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C141">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2908,10 +2926,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2922,13 +2940,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C143">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2936,10 +2954,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C144">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2950,13 +2968,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2964,10 +2982,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -2978,24 +2996,108 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
+        <v>116</v>
+      </c>
+      <c r="C147">
+        <v>46</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>117</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>118</v>
+      </c>
+      <c r="C149">
+        <v>71</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>119</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>120</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>164</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
         <v>121</v>
       </c>
-      <c r="C147">
+      <c r="C153">
         <v>3</v>
       </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B148" t="s">
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
         <v>122</v>
       </c>
-      <c r="C148">
-        <v>5330</v>
-      </c>
-      <c r="D148">
-        <v>90</v>
+      <c r="C154">
+        <v>6110</v>
+      </c>
+      <c r="D154">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3032,7 +3134,7 @@
         <v>126</v>
       </c>
       <c r="B3" s="1">
-        <v>4875</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3040,7 +3142,7 @@
         <v>127</v>
       </c>
       <c r="B4" s="1">
-        <v>50889</v>
+        <v>58608</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3057,7 +3159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6B4575-A5AC-4A14-9A84-E9697D3A22D0}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3098,7 +3202,7 @@
         <v>133</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3106,7 +3210,7 @@
         <v>134</v>
       </c>
       <c r="B6">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3114,7 +3218,7 @@
         <v>135</v>
       </c>
       <c r="B7">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3122,7 +3226,7 @@
         <v>136</v>
       </c>
       <c r="B8">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3130,7 +3234,7 @@
         <v>137</v>
       </c>
       <c r="B9">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3138,7 +3242,7 @@
         <v>138</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3146,7 +3250,7 @@
         <v>139</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3154,7 +3258,7 @@
         <v>140</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3162,7 +3266,7 @@
         <v>141</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3170,7 +3274,7 @@
         <v>142</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3186,7 +3290,8 @@
         <v>122</v>
       </c>
       <c r="B16">
-        <v>1145</v>
+        <f>SUM(B3:B15)</f>
+        <v>1206</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -3228,10 +3333,10 @@
         <v>145</v>
       </c>
       <c r="B3">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="C3" s="2">
-        <v>0.46288209606986902</v>
+        <v>0.46434494195688225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3239,10 +3344,10 @@
         <v>144</v>
       </c>
       <c r="B4">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="C4" s="2">
-        <v>0.48034934497816595</v>
+        <v>0.48258706467661694</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3250,10 +3355,10 @@
         <v>146</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2">
-        <v>5.6768558951965066E-2</v>
+        <v>5.306799336650083E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3261,7 +3366,7 @@
         <v>122</v>
       </c>
       <c r="B6">
-        <v>1145</v>
+        <v>1206</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>

--- a/CaseCountData.xlsx
+++ b/CaseCountData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BCEF5C70-065E-4345-AADE-FB39C36FE60C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F79B8063-464A-4C62-9D1A-26D4CAA0284A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{160AD870-B85E-4BCA-95A5-2750792D272A}"/>
   </bookViews>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cases and Fatalities'!#REF!</definedName>
+    <definedName name="vlook">#REF!</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="187">
   <si>
     <t>No.</t>
   </si>
@@ -561,15 +562,6 @@
     <t>Titus</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 4/4 at 8AM CST</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 4/4 at 8 AM CST</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Cases as of 4/4 at 8 AM CST</t>
-  </si>
-  <si>
     <t>Andrews</t>
   </si>
   <si>
@@ -588,7 +580,19 @@
     <t>Tyler</t>
   </si>
   <si>
-    <t>COVID-19 Cases and Fatalities by County as of 4/4 at 10AM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 4/5 at 8AM CST</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Cases as of 4/5 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 4/5 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>Aransas</t>
+  </si>
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 4/5 at 10AM CST</t>
   </si>
 </sst>
 </file>
@@ -944,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044F80BF-1F9B-4E9C-A2F1-1497551062CC}">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -958,7 +962,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,10 +998,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1022,10 +1026,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1036,10 +1040,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1050,10 +1054,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1064,13 +1068,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1078,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>342</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1092,13 +1096,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>384</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1106,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1120,10 +1124,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1134,13 +1138,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1148,13 +1152,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1162,10 +1166,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1176,10 +1180,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1190,10 +1194,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1204,10 +1208,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1218,10 +1222,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1232,10 +1236,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1246,10 +1250,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1260,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1274,13 +1278,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1288,10 +1292,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1302,10 +1306,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1316,13 +1320,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="C27">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1330,13 +1334,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1344,13 +1348,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1358,13 +1362,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1372,10 +1376,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1386,10 +1390,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1400,13 +1404,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33">
-        <v>921</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1414,13 +1418,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>1015</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1428,10 +1432,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1442,13 +1446,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="C36">
-        <v>273</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1456,13 +1460,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37">
+        <v>288</v>
+      </c>
+      <c r="D37">
         <v>6</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1470,10 +1474,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1484,10 +1488,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1498,10 +1502,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1512,10 +1516,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1526,13 +1530,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1540,13 +1544,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1554,13 +1558,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1568,10 +1572,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1582,10 +1586,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1596,13 +1600,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C47">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1610,13 +1614,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1624,7 +1628,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1638,10 +1642,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1652,10 +1656,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1666,10 +1670,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1680,7 +1684,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1694,10 +1698,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1708,10 +1712,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1722,10 +1726,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1736,10 +1740,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1750,10 +1754,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1764,10 +1768,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1778,13 +1782,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C60">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1792,13 +1796,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61">
-        <v>1106</v>
+        <v>26</v>
       </c>
       <c r="D61">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1806,13 +1810,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>1284</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1820,13 +1824,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1834,10 +1838,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1848,7 +1852,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1862,10 +1866,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="C66">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1876,10 +1880,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1890,13 +1894,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1904,10 +1908,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1918,13 +1922,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1932,10 +1936,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1946,10 +1950,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1960,10 +1964,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1974,10 +1978,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1988,10 +1992,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="C75">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2002,13 +2006,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="C76">
+        <v>51</v>
+      </c>
+      <c r="D76">
         <v>2</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2016,13 +2020,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2030,13 +2034,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2044,10 +2048,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2058,10 +2062,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2072,10 +2076,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2086,7 +2090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -2100,10 +2104,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2114,10 +2118,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2128,7 +2132,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2142,10 +2146,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2156,7 +2160,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -2170,7 +2174,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -2184,10 +2188,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2198,13 +2202,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2212,13 +2216,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2226,7 +2230,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -2240,13 +2244,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C93">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2254,13 +2258,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2268,10 +2272,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2282,7 +2286,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2296,13 +2300,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="C97">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2310,13 +2314,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2324,13 +2328,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C99">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2338,13 +2342,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2352,13 +2356,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C101">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2366,13 +2370,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2380,10 +2384,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -2394,13 +2398,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C104">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2408,13 +2412,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2422,10 +2426,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2436,13 +2440,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C107">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2450,13 +2454,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2464,13 +2468,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2478,10 +2482,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="C110">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2492,13 +2496,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2506,13 +2510,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C112">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2520,10 +2524,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2534,13 +2538,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2548,13 +2552,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2562,10 +2566,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2576,10 +2580,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C117">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2590,13 +2594,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C118">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2604,10 +2608,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2618,10 +2622,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C120">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2632,7 +2636,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="C121">
         <v>11</v>
@@ -2646,13 +2650,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2660,13 +2664,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2674,10 +2678,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -2688,10 +2692,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2702,13 +2706,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C126">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2716,13 +2720,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2730,10 +2734,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2744,13 +2748,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C129">
-        <v>383</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2758,13 +2762,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C130">
-        <v>23</v>
+        <v>404</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2772,13 +2776,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2786,10 +2790,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2800,10 +2804,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="C133">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2814,13 +2818,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C134">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2828,13 +2832,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>460</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2842,10 +2846,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2856,10 +2860,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2870,10 +2874,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2884,10 +2888,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C139">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -2898,13 +2902,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2912,13 +2916,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C141">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2926,10 +2930,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C142">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2940,10 +2944,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C143">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2954,10 +2958,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C144">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2968,13 +2972,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C145">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2982,13 +2986,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C146">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2996,10 +3000,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C147">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -3010,10 +3014,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -3024,10 +3028,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C149">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -3038,13 +3042,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3052,10 +3056,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -3066,10 +3070,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -3080,24 +3084,38 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
         <v>121</v>
       </c>
-      <c r="C153">
+      <c r="C154">
         <v>3</v>
       </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B154" t="s">
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
         <v>122</v>
       </c>
-      <c r="C154">
-        <v>6110</v>
-      </c>
-      <c r="D154">
-        <v>105</v>
+      <c r="C155">
+        <v>6812</v>
+      </c>
+      <c r="D155">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3118,7 +3136,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3134,7 +3152,7 @@
         <v>126</v>
       </c>
       <c r="B3" s="1">
-        <v>5143</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3142,7 +3160,7 @@
         <v>127</v>
       </c>
       <c r="B4" s="1">
-        <v>58608</v>
+        <v>65626</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3160,7 +3178,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3170,7 +3188,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3194,7 +3212,7 @@
         <v>132</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3202,7 +3220,7 @@
         <v>133</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3210,7 +3228,7 @@
         <v>134</v>
       </c>
       <c r="B6">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3218,7 +3236,7 @@
         <v>135</v>
       </c>
       <c r="B7">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3226,7 +3244,7 @@
         <v>136</v>
       </c>
       <c r="B8">
-        <v>227</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3234,7 +3252,7 @@
         <v>137</v>
       </c>
       <c r="B9">
-        <v>229</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3242,7 +3260,7 @@
         <v>138</v>
       </c>
       <c r="B10">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3250,7 +3268,7 @@
         <v>139</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3258,7 +3276,7 @@
         <v>140</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3266,7 +3284,7 @@
         <v>141</v>
       </c>
       <c r="B13">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3274,7 +3292,7 @@
         <v>142</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3290,8 +3308,7 @@
         <v>122</v>
       </c>
       <c r="B16">
-        <f>SUM(B3:B15)</f>
-        <v>1206</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -3314,7 +3331,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3333,10 +3350,10 @@
         <v>145</v>
       </c>
       <c r="B3">
-        <v>560</v>
+        <v>655</v>
       </c>
       <c r="C3" s="2">
-        <v>0.46434494195688225</v>
+        <v>0.47567175018155411</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3344,10 +3361,10 @@
         <v>144</v>
       </c>
       <c r="B4">
-        <v>582</v>
+        <v>658</v>
       </c>
       <c r="C4" s="2">
-        <v>0.48258706467661694</v>
+        <v>0.47785039941902685</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3358,7 +3375,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="2">
-        <v>5.306799336650083E-2</v>
+        <v>4.6477850399419027E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3366,7 +3383,7 @@
         <v>122</v>
       </c>
       <c r="B6">
-        <v>1206</v>
+        <v>1377</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -3379,5 +3396,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CaseCountData.xlsx
+++ b/CaseCountData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA3A923-699E-424A-9310-4177521A0B7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB477E59-BBFA-4871-8B85-37AA5AB38001}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="198">
   <si>
     <t>No.</t>
   </si>
@@ -500,18 +500,12 @@
     <t>Cases</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities by County as of 4/6 at 10:45AM CST</t>
-  </si>
-  <si>
     <t>Crosby</t>
   </si>
   <si>
     <t>Dallam</t>
   </si>
   <si>
-    <t>Gray</t>
-  </si>
-  <si>
     <t>Hansford</t>
   </si>
   <si>
@@ -602,19 +596,37 @@
     <t>Pending</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 4/6 at 8AM CST</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Cases as of 4/6 at 8 AM CST</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 4/6 at 8 AM CST</t>
-  </si>
-  <si>
     <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
   </si>
   <si>
     <t>Number of People Hospitalized for SARS-CoV-2 in Texas as of 4/6 at 8AM CST</t>
+  </si>
+  <si>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 4/7 at 8AM CST</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 4/7 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Cases as of 4/7 at 8 AM CST</t>
+  </si>
+  <si>
+    <t>COVID-19 Positive Cases and Fatalities by County as of 4/7 at 10:45AM CST</t>
+  </si>
+  <si>
+    <t>Callahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray </t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
   </si>
 </sst>
 </file>
@@ -624,16 +636,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -649,17 +655,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -676,12 +677,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,15 +689,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1010,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,13 +1016,13 @@
   <cols>
     <col min="1" max="1" width="6.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1034,10 +1032,10 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1048,10 +1046,10 @@
       <c r="B3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1062,10 +1060,10 @@
       <c r="B4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1076,10 +1074,10 @@
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1090,10 +1088,10 @@
       <c r="B6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1104,10 +1102,10 @@
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1118,10 +1116,10 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1132,11 +1130,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="C9" s="5">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,11 +1144,11 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
-        <v>58</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="C10" s="5">
+        <v>68</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,10 +1158,10 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>410</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="5">
+        <v>456</v>
+      </c>
+      <c r="D11" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1174,10 +1172,10 @@
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1188,10 +1186,10 @@
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="5">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1202,10 +1200,10 @@
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>144</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="5">
+        <v>167</v>
+      </c>
+      <c r="D14" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1216,11 +1214,11 @@
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>94</v>
       </c>
-      <c r="D15">
-        <v>6</v>
+      <c r="D15" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,10 +1228,10 @@
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1244,10 +1242,10 @@
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1258,10 +1256,10 @@
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1269,13 +1267,13 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="5">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1286,10 +1284,10 @@
       <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>12</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1298,12 +1296,12 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
-        <v>87</v>
-      </c>
-      <c r="D21">
+        <v>193</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1312,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C22" s="5">
+        <v>101</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1326,12 +1324,12 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
+        <v>123</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1340,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C24" s="5">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1354,13 +1352,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C25" s="5">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1368,12 +1366,12 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="C26" s="5">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1380,12 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="C27" s="5">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1396,13 +1394,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <v>287</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
+        <v>124</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,13 +1408,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C29" s="5">
+        <v>306</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,13 +1422,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30">
-        <v>21</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
+        <v>125</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1438,13 +1436,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C31" s="5">
+        <v>22</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1452,12 +1450,12 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32">
+        <v>126</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3</v>
+      </c>
+      <c r="D32" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1465,13 +1463,13 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="5">
+        <v>11</v>
+      </c>
+      <c r="D33" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1480,12 +1478,12 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1494,12 +1492,12 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
+        <v>155</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1508,13 +1506,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36">
-        <v>1112</v>
-      </c>
-      <c r="D36">
-        <v>18</v>
+        <v>156</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1522,13 +1520,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1155</v>
+      </c>
+      <c r="D37" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,13 +1534,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1550,13 +1548,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39">
-        <v>304</v>
-      </c>
-      <c r="D39">
+        <v>127</v>
+      </c>
+      <c r="C39" s="5">
         <v>7</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1564,13 +1562,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40">
+        <v>28</v>
+      </c>
+      <c r="C40" s="5">
+        <v>337</v>
+      </c>
+      <c r="D40" s="5">
         <v>7</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1578,12 +1576,12 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41">
+        <v>29</v>
+      </c>
+      <c r="C41" s="5">
         <v>7</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1592,12 +1590,12 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
+        <v>137</v>
+      </c>
+      <c r="C42" s="5">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1606,12 +1604,12 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43">
-        <v>26</v>
-      </c>
-      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1620,12 +1618,12 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44">
-        <v>115</v>
-      </c>
-      <c r="D44">
+        <v>31</v>
+      </c>
+      <c r="C44" s="5">
+        <v>30</v>
+      </c>
+      <c r="D44" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1634,13 +1632,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45">
-        <v>29</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="C45" s="5">
+        <v>125</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1648,27 +1646,27 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46">
-        <v>7</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="C46" s="5">
+        <v>35</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
+      <c r="B47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="5">
+        <v>8</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1676,12 +1674,12 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
+        <v>35</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1690,12 +1688,12 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49">
-        <v>9</v>
-      </c>
-      <c r="D49">
+        <v>36</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1704,13 +1702,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50">
-        <v>280</v>
-      </c>
-      <c r="D50">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="C50" s="5">
+        <v>9</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1718,13 +1716,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="C51" s="5">
+        <v>318</v>
+      </c>
+      <c r="D51" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1732,12 +1730,12 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
+        <v>38</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1746,13 +1744,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53">
-        <v>240</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1760,13 +1758,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="C54" s="5">
+        <v>256</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1774,12 +1772,12 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55">
+        <v>138</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1788,12 +1786,12 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
+        <v>139</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3</v>
+      </c>
+      <c r="D56" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1802,12 +1800,12 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57">
-        <v>9</v>
-      </c>
-      <c r="D57">
+        <v>128</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1816,12 +1814,12 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58">
-        <v>13</v>
-      </c>
-      <c r="D58">
+        <v>194</v>
+      </c>
+      <c r="C58" s="5">
+        <v>9</v>
+      </c>
+      <c r="D58" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1830,12 +1828,12 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59">
-        <v>10</v>
-      </c>
-      <c r="D59">
+        <v>42</v>
+      </c>
+      <c r="C59" s="5">
+        <v>14</v>
+      </c>
+      <c r="D59" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1844,12 +1842,12 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60">
+        <v>43</v>
+      </c>
+      <c r="C60" s="5">
+        <v>20</v>
+      </c>
+      <c r="D60" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1857,13 +1855,13 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61">
-        <v>28</v>
-      </c>
-      <c r="D61">
+      <c r="B61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="5">
+        <v>4</v>
+      </c>
+      <c r="D61" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1872,12 +1870,12 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62">
-        <v>7</v>
-      </c>
-      <c r="D62">
+        <v>45</v>
+      </c>
+      <c r="C62" s="5">
+        <v>39</v>
+      </c>
+      <c r="D62" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1886,12 +1884,12 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
+        <v>46</v>
+      </c>
+      <c r="C63" s="5">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1900,13 +1898,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64">
-        <v>26</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
+        <v>195</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1914,13 +1912,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65">
-        <v>1395</v>
-      </c>
-      <c r="D65">
-        <v>20</v>
+        <v>157</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1928,12 +1926,12 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66">
-        <v>8</v>
-      </c>
-      <c r="D66">
+        <v>47</v>
+      </c>
+      <c r="C66" s="5">
+        <v>28</v>
+      </c>
+      <c r="D66" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1942,13 +1940,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67">
-        <v>54</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1809</v>
+      </c>
+      <c r="D67" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1956,13 +1954,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C68" s="5">
+        <v>11</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1970,12 +1968,12 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
+        <v>50</v>
+      </c>
+      <c r="C69" s="5">
+        <v>59</v>
+      </c>
+      <c r="D69" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1984,12 +1982,12 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70">
-        <v>99</v>
-      </c>
-      <c r="D70">
+        <v>148</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1998,12 +1996,12 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-      <c r="D71">
+        <v>129</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2012,13 +2010,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72">
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="C72" s="5">
+        <v>113</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2026,13 +2024,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73">
-        <v>9</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="C73" s="5">
+        <v>5</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2040,27 +2038,27 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="C74" s="5">
+        <v>10</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
+      <c r="B75" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="5">
+        <v>10</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2068,12 +2066,12 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76">
+        <v>55</v>
+      </c>
+      <c r="C76" s="5">
+        <v>4</v>
+      </c>
+      <c r="D76" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2082,12 +2080,12 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77">
+        <v>56</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2096,12 +2094,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C78">
+        <v>149</v>
+      </c>
+      <c r="C78" s="5">
         <v>2</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2110,13 +2108,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79">
-        <v>59</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="C79" s="5">
+        <v>4</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2124,12 +2122,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80">
+        <v>140</v>
+      </c>
+      <c r="C80" s="5">
         <v>2</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2138,13 +2136,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C81">
-        <v>21</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="C81" s="5">
+        <v>78</v>
+      </c>
+      <c r="D81" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2152,12 +2150,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82">
+        <v>141</v>
+      </c>
+      <c r="C82" s="5">
         <v>2</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2166,13 +2164,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83">
-        <v>9</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C83" s="5">
+        <v>24</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2180,12 +2178,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84">
-        <v>9</v>
-      </c>
-      <c r="D84">
+        <v>60</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2194,12 +2192,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
+        <v>61</v>
+      </c>
+      <c r="C85" s="5">
+        <v>14</v>
+      </c>
+      <c r="D85" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2208,12 +2206,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86">
+        <v>62</v>
+      </c>
+      <c r="C86" s="5">
+        <v>9</v>
+      </c>
+      <c r="D86" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2222,12 +2220,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87">
-        <v>6</v>
-      </c>
-      <c r="D87">
+        <v>130</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2236,12 +2234,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
+        <v>63</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2</v>
+      </c>
+      <c r="D88" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2249,13 +2247,13 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-      <c r="D89">
+      <c r="B89" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2264,12 +2262,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-      <c r="D90">
+        <v>64</v>
+      </c>
+      <c r="C90" s="5">
+        <v>6</v>
+      </c>
+      <c r="D90" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2278,12 +2276,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91">
+        <v>65</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2290,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92">
+        <v>145</v>
+      </c>
+      <c r="C92" s="5">
         <v>2</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2306,12 +2304,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93">
-        <v>6</v>
-      </c>
-      <c r="D93">
+        <v>67</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2</v>
+      </c>
+      <c r="D93" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2320,13 +2318,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2334,12 +2332,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-      <c r="D95">
+        <v>66</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2</v>
+      </c>
+      <c r="D95" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2348,12 +2346,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
+        <v>68</v>
+      </c>
+      <c r="C96" s="5">
+        <v>12</v>
+      </c>
+      <c r="D96" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2362,13 +2360,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C97">
-        <v>154</v>
-      </c>
-      <c r="D97">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="C97" s="5">
+        <v>6</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2376,12 +2374,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98">
+        <v>131</v>
+      </c>
+      <c r="C98" s="5">
         <v>3</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2390,12 +2388,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="D99">
+        <v>70</v>
+      </c>
+      <c r="C99" s="5">
+        <v>3</v>
+      </c>
+      <c r="D99" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2404,13 +2402,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="C100" s="5">
+        <v>180</v>
+      </c>
+      <c r="D100" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2418,13 +2416,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101">
-        <v>37</v>
-      </c>
-      <c r="D101">
+        <v>72</v>
+      </c>
+      <c r="C101" s="5">
         <v>3</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2432,12 +2430,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C102">
-        <v>5</v>
-      </c>
-      <c r="D102">
+        <v>73</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2</v>
+      </c>
+      <c r="D102" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2445,14 +2443,14 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103">
-        <v>53</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
+      <c r="B103" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" s="5">
+        <v>1</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2460,13 +2458,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C104">
-        <v>4</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="C104" s="5">
+        <v>37</v>
+      </c>
+      <c r="D104" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2474,13 +2472,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C105">
-        <v>24</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="C105" s="5">
+        <v>5</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2488,13 +2486,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106">
-        <v>3</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C106" s="5">
+        <v>56</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2502,12 +2500,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
+        <v>77</v>
+      </c>
+      <c r="C107" s="5">
+        <v>6</v>
+      </c>
+      <c r="D107" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2516,13 +2514,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C108">
-        <v>149</v>
-      </c>
-      <c r="D108">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="C108" s="5">
+        <v>27</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2530,12 +2528,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C109">
-        <v>6</v>
-      </c>
-      <c r="D109">
+        <v>79</v>
+      </c>
+      <c r="C109" s="5">
+        <v>3</v>
+      </c>
+      <c r="D109" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2544,12 +2542,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
+        <v>197</v>
+      </c>
+      <c r="C110" s="5">
+        <v>1</v>
+      </c>
+      <c r="D110" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2558,13 +2556,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C111">
-        <v>18</v>
-      </c>
-      <c r="D111">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="C111" s="5">
+        <v>1</v>
+      </c>
+      <c r="D111" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2572,13 +2570,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C112">
-        <v>4</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="C112" s="5">
+        <v>161</v>
+      </c>
+      <c r="D112" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2586,12 +2584,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
+        <v>82</v>
+      </c>
+      <c r="C113" s="5">
+        <v>7</v>
+      </c>
+      <c r="D113" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2600,12 +2598,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C114">
-        <v>53</v>
-      </c>
-      <c r="D114">
+        <v>83</v>
+      </c>
+      <c r="C114" s="5">
+        <v>1</v>
+      </c>
+      <c r="D114" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2614,13 +2612,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C115">
+        <v>84</v>
+      </c>
+      <c r="C115" s="5">
+        <v>21</v>
+      </c>
+      <c r="D115" s="5">
         <v>2</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2628,12 +2626,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C116">
-        <v>22</v>
-      </c>
-      <c r="D116">
+        <v>85</v>
+      </c>
+      <c r="C116" s="5">
+        <v>4</v>
+      </c>
+      <c r="D116" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2641,13 +2639,13 @@
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
+      <c r="B117" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117" s="5">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2656,13 +2654,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C118">
-        <v>4</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="C118" s="5">
+        <v>59</v>
+      </c>
+      <c r="D118" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2670,13 +2668,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C119">
-        <v>6</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="C119" s="5">
+        <v>3</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2684,12 +2682,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
+        <v>88</v>
+      </c>
+      <c r="C120" s="5">
+        <v>26</v>
+      </c>
+      <c r="D120" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2697,13 +2695,13 @@
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C121">
-        <v>8</v>
-      </c>
-      <c r="D121">
+      <c r="B121" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="5">
+        <v>2</v>
+      </c>
+      <c r="D121" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2712,12 +2710,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C122">
-        <v>40</v>
-      </c>
-      <c r="D122">
+        <v>144</v>
+      </c>
+      <c r="C122" s="5">
+        <v>4</v>
+      </c>
+      <c r="D122" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2726,13 +2724,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C123">
-        <v>36</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="C123" s="5">
+        <v>6</v>
+      </c>
+      <c r="D123" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2740,12 +2738,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
-      <c r="D124">
+        <v>158</v>
+      </c>
+      <c r="C124" s="5">
+        <v>1</v>
+      </c>
+      <c r="D124" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2754,12 +2752,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C125">
-        <v>10</v>
-      </c>
-      <c r="D125">
+        <v>90</v>
+      </c>
+      <c r="C125" s="5">
+        <v>8</v>
+      </c>
+      <c r="D125" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2768,26 +2766,26 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C126">
-        <v>11</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="C126" s="5">
+        <v>41</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C127">
-        <v>4</v>
-      </c>
-      <c r="D127">
+      <c r="B127" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C127" s="5">
+        <v>36</v>
+      </c>
+      <c r="D127" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2796,12 +2794,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
+        <v>93</v>
+      </c>
+      <c r="C128" s="5">
+        <v>2</v>
+      </c>
+      <c r="D128" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2810,12 +2808,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C129">
-        <v>2</v>
-      </c>
-      <c r="D129">
+        <v>94</v>
+      </c>
+      <c r="C129" s="5">
+        <v>11</v>
+      </c>
+      <c r="D129" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2824,12 +2822,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C130">
-        <v>11</v>
-      </c>
-      <c r="D130">
+        <v>133</v>
+      </c>
+      <c r="C130" s="5">
+        <v>12</v>
+      </c>
+      <c r="D130" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2837,13 +2835,13 @@
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C131">
-        <v>57</v>
-      </c>
-      <c r="D131">
+      <c r="B131" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" s="5">
+        <v>4</v>
+      </c>
+      <c r="D131" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2852,12 +2850,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C132">
-        <v>7</v>
-      </c>
-      <c r="D132">
+        <v>95</v>
+      </c>
+      <c r="C132" s="5">
+        <v>1</v>
+      </c>
+      <c r="D132" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2866,12 +2864,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133">
+        <v>135</v>
+      </c>
+      <c r="C133" s="5">
+        <v>2</v>
+      </c>
+      <c r="D133" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2880,13 +2878,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C134">
-        <v>418</v>
-      </c>
-      <c r="D134">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="C134" s="5">
+        <v>13</v>
+      </c>
+      <c r="D134" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2894,12 +2892,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C135">
-        <v>31</v>
-      </c>
-      <c r="D135">
+        <v>97</v>
+      </c>
+      <c r="C135" s="5">
+        <v>63</v>
+      </c>
+      <c r="D135" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2908,12 +2906,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C136">
-        <v>4</v>
-      </c>
-      <c r="D136">
+        <v>98</v>
+      </c>
+      <c r="C136" s="5">
+        <v>7</v>
+      </c>
+      <c r="D136" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2922,12 +2920,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137">
+        <v>99</v>
+      </c>
+      <c r="C137" s="5">
+        <v>1</v>
+      </c>
+      <c r="D137" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2936,13 +2934,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C138">
-        <v>21</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="C138" s="5">
+        <v>452</v>
+      </c>
+      <c r="D138" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2950,13 +2948,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C139">
-        <v>484</v>
-      </c>
-      <c r="D139">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="C139" s="5">
+        <v>31</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2964,12 +2962,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C140">
-        <v>2</v>
-      </c>
-      <c r="D140">
+        <v>102</v>
+      </c>
+      <c r="C140" s="5">
+        <v>4</v>
+      </c>
+      <c r="D140" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2978,12 +2976,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
+        <v>146</v>
+      </c>
+      <c r="C141" s="5">
+        <v>2</v>
+      </c>
+      <c r="D141" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2992,12 +2990,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C142">
-        <v>3</v>
-      </c>
-      <c r="D142">
+        <v>103</v>
+      </c>
+      <c r="C142" s="5">
+        <v>24</v>
+      </c>
+      <c r="D142" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3006,13 +3004,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C143">
-        <v>5</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C143" s="5">
+        <v>502</v>
+      </c>
+      <c r="D143" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3020,12 +3018,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C144">
-        <v>5</v>
-      </c>
-      <c r="D144">
+        <v>151</v>
+      </c>
+      <c r="C144" s="5">
+        <v>2</v>
+      </c>
+      <c r="D144" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3033,14 +3031,14 @@
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C145">
-        <v>4</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
+      <c r="B145" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" s="5">
+        <v>1</v>
+      </c>
+      <c r="D145" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3048,12 +3046,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C146">
-        <v>35</v>
-      </c>
-      <c r="D146">
+        <v>105</v>
+      </c>
+      <c r="C146" s="5">
+        <v>5</v>
+      </c>
+      <c r="D146" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3062,12 +3060,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C147">
-        <v>10</v>
-      </c>
-      <c r="D147">
+        <v>106</v>
+      </c>
+      <c r="C147" s="5">
+        <v>5</v>
+      </c>
+      <c r="D147" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3076,12 +3074,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C148">
-        <v>9</v>
-      </c>
-      <c r="D148">
+        <v>107</v>
+      </c>
+      <c r="C148" s="5">
+        <v>6</v>
+      </c>
+      <c r="D148" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3090,12 +3088,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C149">
-        <v>17</v>
-      </c>
-      <c r="D149">
+        <v>108</v>
+      </c>
+      <c r="C149" s="5">
+        <v>5</v>
+      </c>
+      <c r="D149" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3104,13 +3102,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C150">
-        <v>106</v>
-      </c>
-      <c r="D150">
-        <v>6</v>
+        <v>109</v>
+      </c>
+      <c r="C150" s="5">
+        <v>50</v>
+      </c>
+      <c r="D150" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3118,12 +3116,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C151">
-        <v>12</v>
-      </c>
-      <c r="D151">
+        <v>110</v>
+      </c>
+      <c r="C151" s="5">
+        <v>10</v>
+      </c>
+      <c r="D151" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3132,12 +3130,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C152">
-        <v>47</v>
-      </c>
-      <c r="D152">
+        <v>111</v>
+      </c>
+      <c r="C152" s="5">
+        <v>11</v>
+      </c>
+      <c r="D152" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3146,12 +3144,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C153">
-        <v>5</v>
-      </c>
-      <c r="D153">
+        <v>112</v>
+      </c>
+      <c r="C153" s="5">
+        <v>21</v>
+      </c>
+      <c r="D153" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3160,13 +3158,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C154">
-        <v>77</v>
-      </c>
-      <c r="D154">
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="C154" s="5">
+        <v>122</v>
+      </c>
+      <c r="D154" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3174,12 +3172,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C155">
-        <v>6</v>
-      </c>
-      <c r="D155">
+        <v>114</v>
+      </c>
+      <c r="C155" s="5">
+        <v>17</v>
+      </c>
+      <c r="D155" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3188,12 +3186,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C156">
-        <v>3</v>
-      </c>
-      <c r="D156">
+        <v>115</v>
+      </c>
+      <c r="C156" s="5">
+        <v>48</v>
+      </c>
+      <c r="D156" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3202,13 +3200,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C157">
-        <v>3</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="C157" s="5">
+        <v>5</v>
+      </c>
+      <c r="D157" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3216,35 +3214,91 @@
         <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C158">
+        <v>117</v>
+      </c>
+      <c r="C158" s="5">
+        <v>81</v>
+      </c>
+      <c r="D158" s="5">
         <v>3</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C159" s="5">
+        <v>7</v>
+      </c>
+      <c r="D159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C160" s="5">
+        <v>3</v>
+      </c>
+      <c r="D160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" s="5">
+        <v>4</v>
+      </c>
+      <c r="D161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C162" s="5">
+        <v>3</v>
+      </c>
+      <c r="D162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C160">
-        <v>7276</v>
-      </c>
-      <c r="D160">
-        <v>140</v>
+      <c r="B163" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C163" s="5">
+        <v>1</v>
+      </c>
+      <c r="D163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C164" s="5">
+        <v>8262</v>
+      </c>
+      <c r="D164" s="5">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3257,7 +3311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3574A40B-8733-4917-82E6-8F7C12DE60F8}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3272,31 +3328,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="6">
-        <v>5611</v>
+        <v>162</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5962</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="6">
-        <v>79746</v>
+        <v>163</v>
+      </c>
+      <c r="B4" s="5">
+        <v>82687</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3308,25 +3364,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FB4432-1ED5-4C74-9A73-3478BA15ED15}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1153</v>
+      <c r="A3" s="5">
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -3348,132 +3402,132 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3">
+        <v>167</v>
+      </c>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
+        <v>168</v>
+      </c>
+      <c r="B4" s="5">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5">
+        <v>169</v>
+      </c>
+      <c r="B5" s="5">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6">
-        <v>224</v>
+        <v>170</v>
+      </c>
+      <c r="B6" s="5">
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7">
-        <v>254</v>
+        <v>171</v>
+      </c>
+      <c r="B7" s="5">
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8">
-        <v>312</v>
+        <v>172</v>
+      </c>
+      <c r="B8" s="5">
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9">
-        <v>297</v>
+        <v>173</v>
+      </c>
+      <c r="B9" s="5">
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10">
-        <v>149</v>
+        <v>174</v>
+      </c>
+      <c r="B10" s="5">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11">
-        <v>113</v>
+        <v>175</v>
+      </c>
+      <c r="B11" s="5">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12">
-        <v>74</v>
+        <v>176</v>
+      </c>
+      <c r="B12" s="5">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13">
-        <v>51</v>
+        <v>177</v>
+      </c>
+      <c r="B13" s="5">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14">
-        <v>61</v>
+        <v>178</v>
+      </c>
+      <c r="B14" s="5">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15">
+        <v>179</v>
+      </c>
+      <c r="B15" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16">
-        <v>1592</v>
+        <v>180</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1650</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3485,77 +3539,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE20A27F-EB8E-4573-8A0B-29AB681D90B1}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3">
-        <v>758</v>
-      </c>
-      <c r="C3" s="7">
-        <f>B3/B$6</f>
-        <v>0.47613065326633164</v>
+        <v>184</v>
+      </c>
+      <c r="B3" s="5">
+        <v>782</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.47393939393939394</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4">
-        <v>771</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.47785039941902685</v>
+        <v>185</v>
+      </c>
+      <c r="B4" s="5">
+        <v>805</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.48787878787878786</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5">
+        <v>186</v>
+      </c>
+      <c r="B5" s="5">
         <v>63</v>
       </c>
-      <c r="C5" s="7">
-        <v>4.6477850399419027E-2</v>
+      <c r="C5" s="6">
+        <v>3.8181818181818185E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6">
-        <f>SUM(B3:B5)</f>
-        <v>1592</v>
-      </c>
-      <c r="C6" s="7">
+        <v>180</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1650</v>
+      </c>
+      <c r="C6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
